--- a/ArchivosExcel/MercadoLibre-Celulares.xlsx
+++ b/ArchivosExcel/MercadoLibre-Celulares.xlsx
@@ -463,23 +463,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zte Smartphone Blade A54 128gb 4gb Ram Morado</t>
+          <t>Realme Note NOTE 50 Dual SIM 64 GB azul 3 GB RAM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>$
-2,499</t>
+2,248
+,
+47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,699</t>
+          <t>1,628</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,18 +493,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Celular Wiko T3 4gb-128gb Dorado</t>
+          <t>OnePlus Nord CE 3 Dual SIM 256 GB gris 12 GB RAM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>$
-1,448</t>
+7,971
+,
+42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,375</t>
+          <t>6,377</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,23 +523,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (128 GB) - Blanco estelar - Distribuidor Autorizado</t>
+          <t>Xiaomi Poco M5s 8gb 256gb 6.43 Amoled 64mp 5000mah 33w Azul</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>$
-20,999</t>
+3,324
+,
+05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13,363</t>
+          <t>2,599</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,25 +553,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Oukitel WP33 Pro Dual SIM 256 GB Negro 8 GB RAM</t>
+          <t>Celular Zte Blade L9 32gb + 1gb Ram Android 11 Liberado Azul</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>$
-10,626
-,
-06</t>
+1,699</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6,375</t>
+          <t>1,009</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -577,25 +581,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Oppo Reno11 5G Dual SIM 256 GB verde claro 12 GB RAM</t>
+          <t>Bmobile Smartphone Desbloqueado B60 Pro 32 Gb Rom Liberado</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>$
-12,828
-,
-55</t>
+1,498
+,
+34</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8,595</t>
+          <t>899</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -607,25 +611,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Xiaomi Poco M5s 8gb 256gb 6.43 Amoled 64mp 5000mah 33w Azul</t>
+          <t>Honor Magic5 Lite Dual SIM 256 GB plata titanio 8 GB RAM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$
-3,324
-,
-05</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,599</t>
+          <t>3,818</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -637,7 +638,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Honor Magic5 Lite Dual SIM 256 GB plata titanio 8 GB RAM</t>
+          <t>Xiaomi Redmi Note 13 4G Dual SIM 256 GB azul 8 GB RAM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -647,12 +648,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3,817</t>
+          <t>3,133</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -664,18 +665,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 13 4G Dual SIM 256 GB negro 8 GB RAM</t>
+          <t>Celular Poco C65 256gb 8gb Black Color Negro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>$
-3,299</t>
+3,101
+,
+34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2,936</t>
+          <t>2,345</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -692,23 +695,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Teléfono Sim Dual 128gb Ram 6gb 6.528pulgadas Celular Soporte Expansión256 Gb Con Reconocimiento Facial 6000mah Azul</t>
+          <t>Teléfono Móvil Kxd D70 32gb Rom 2gb Ram Dual Sim Android 4g/lte.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>$
-1,999</t>
+2,326
+,
+01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1,579</t>
+          <t>1,116</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -720,22 +725,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rugged Phones Unlocked, 2024 Blackview Bv6200 Waterproof Rugged Smartphone, 13000mah Battery 18w Fast Charge, Android 13, 4gb+64gb/2tb Expand</t>
+          <t>Teléfono Móvil Smartphone Kxd A07 De 8 Gb De Ram +128 Gb Dual Desbloqueo De Huellas Dactilares Actualizadas De 6,52 Pulgadas Negro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+2,019
+,
+94</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2,241</t>
+          <t>1,737</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -747,25 +755,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Celular Poco C65 256gb 8gb Black Color Negro</t>
+          <t>Cubot KingKong 9 Dual SIM 256 GB Black 12 GB RAM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>$
-3,091
-,
-22</t>
+6,377
+,
+14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2,337</t>
+          <t>4,845</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -777,25 +785,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cubot KingKong 9 Dual SIM 256 GB Black 12 GB RAM</t>
+          <t>Teléfono Samsung Galaxy A55 5g 128 GB, azul oscuro</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>$
-6,356
-,
-31</t>
+5,799</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4,830</t>
+          <t>5,683</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -807,23 +813,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S24 Plus (Exynos) Galaxy AI 5G Dual SIM 512 GB Violeta 12 GB RAM</t>
+          <t>Cubot Note 21 Dual SIM 128 GB Verde 6 GB RAM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>$
-26,999</t>
+3,857
+,
+30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,009</t>
+          <t>1,802</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -835,23 +843,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Teléfono Samsung Galaxy A55 5g 128 GB, azul oscuro</t>
+          <t>Xiaomi POCO Poco X6 Pro 5G Dual SIM 512 GB negro 12 GB RAM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>$
-5,799</t>
+8,332
+,
+50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,683</t>
+          <t>6,226</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -863,25 +873,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cubot Note 21 Dual SIM 128 GB Verde 6 GB RAM</t>
+          <t>Xiaomi Pocophone Poco M5s Dual SIM 128 GB gris 4 GB RAM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>$
-3,844
-,
-70</t>
+2,656
+,
+96</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1,796</t>
+          <t>2,099</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -893,25 +903,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Xiaomi Pocophone Poco M5s Dual SIM 128 GB gris 4 GB RAM</t>
+          <t>Moto G24 Power Dual SIM 256 GB celeste 8 GB RAM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>$
-2,656
-,
-96</t>
+2,521</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2,099</t>
+          <t>2,445</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -923,17 +931,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Motorola Moto G54 Dual SIM 256 GB azul ártico 8 GB RAM</t>
+          <t>Moto G13 Dual SIM 128 GB gris oxford 4 GB RAM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+2,105</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,123</t>
+          <t>1,969</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -950,23 +959,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Apple iPhone 13 (256 GB) - Rosa - Distribuidor Autorizado</t>
+          <t>Cubot X70 Dual SIM 256 GB space black 12 GB RAM</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>$
-23,999</t>
+5,214
+,
+13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15,360</t>
+          <t>3,779</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -978,18 +989,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Moto G13 Dual SIM 128 GB gris oxford 4 GB RAM</t>
+          <t>Celular Motorola Edge 30 Memoria Ram 8 Gb Y Memoria Interna 128 Gb Color Azul</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>$
-2,105</t>
+6,499</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1,969</t>
+          <t>3,249</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1006,25 +1017,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Xiaomi POCO Poco X6 Pro 5G Dual SIM 512 GB negro 12 GB RAM</t>
+          <t>Teléfono Samsung Galaxy M15 5G 128 GB 4 GB Azul oscuro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$
-8,332
-,
-50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6,226</t>
+          <t>2,930</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1036,23 +1044,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Moto G24 Power Dual SIM 256 GB azul 8 GB RAM</t>
+          <t>Xiaomi Redmi 12 Dual SIM 256 GB midnight black 8 GB RAM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>$
-3,163</t>
+4,499</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2,498</t>
+          <t>2,609</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1064,22 +1072,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S23 Fe Galaxy AI 256GB Negro 8GB RAM</t>
+          <t>Honor X8a Dual SIM 256 GB plata estelar 8 GB RAM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+3,360</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8,939</t>
+          <t>2,789</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1091,25 +1100,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cubot X70 Dual SIM 256 GB space black 12 GB RAM</t>
+          <t>Xiaomi Redmi Note 13 Pro+ 5G Dual SIM 512 GB negro 12 GB RAM</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$
-5,197
-,
-11</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,767</t>
+          <t>6,711</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1121,18 +1127,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 13 Pro+ 5G Dual SIM 512 GB negro 12 GB RAM</t>
+          <t>Cubot King Kong Ax Dual SIM 256 GB negro 12 GB RAM</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>$
-9,999</t>
+6,784
+,
+19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6,699</t>
+          <t>4,690</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1149,23 +1157,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Celular Motorola Edge 30 Memoria Ram 8 Gb Y Memoria Interna 128 Gb Color Azul</t>
+          <t>Xiaomi Pocophone Poco M6 Pro Dual SIM 512 GB violeta 12 GB RAM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>$
-6,499</t>
+5,815
+,
+02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3,249</t>
+          <t>4,303</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1177,23 +1187,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip5 8gb + 256gb Color Menta</t>
+          <t>Moto G13 128 GB gris oxford 4 GB RAM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$
-17,999</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13,024</t>
+          <t>1,899</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1205,25 +1214,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 11E Pro Dual SIM 128 GB graphite gray 8 GB RAM</t>
+          <t>Moto G84 5G Dual SIM 256 GB gris oscuro 8 GB RAM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>$
-4,636
-,
-82</t>
+4,099</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3,468</t>
+          <t>3,799</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1235,23 +1242,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Honor X8a Dual SIM 256 GB plata estelar 8 GB RAM</t>
+          <t>Moto G14 Dual SIM 128 GB gris oscuro 4 GB RAM</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$
-3,360</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2,789</t>
+          <t>1,949</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1263,23 +1269,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Celular Wiko T3 4gb-128gb Dorado</t>
+          <t>Xiaomi POCO Poco X6 5G Dual SIM 256 GB blanco 8 GB RAM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>$
-1,448</t>
+5,815
+,
+02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1,375</t>
+          <t>4,535</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1291,25 +1299,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cubot King Kong Ax Dual SIM 256 GB negro 12 GB RAM</t>
+          <t>Cubot Note 40 Dual SIM 256 GB Negro 6 GB RAM</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>$
-6,762
-,
-04</t>
+3,876
+,
+68</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4,675</t>
+          <t>1,977</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1321,25 +1329,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Realme 12 Pro Plus 12gb Ram 512gb Rom 50mp Ois 8mp Gran Angular 64mp 3x Teleobjetivo 5000mah 67w Pantalla Curva 120hz Fhd+ Beige</t>
+          <t>Cel Xiaomi Redmi A3 3/64gb Verde</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$
-13,791
-,
-38</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7,889</t>
+          <t>1,523</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1351,22 +1356,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 12 Dual SIM 256 GB negro medianoche 8 GB RAM</t>
+          <t>Samsung Galaxy A05 64 GB verde claro 4 GB RAM</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+1,975
+,
+56</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2,599</t>
+          <t>1,778</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1378,23 +1386,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Moto G84 5G Dual SIM 256 GB gris oscuro 8 GB RAM</t>
+          <t>Zte Smartphone Blade A54 128gb 4gb Ram Gris</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>$
-4,099</t>
+2,499</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3,799</t>
+          <t>1,699</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1406,22 +1414,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Moto G14 Dual SIM 128 GB gris oscuro 4 GB RAM</t>
+          <t>Realme 12 Pro Plus 12gb Ram 512gb Rom 50mp Ois 8mp Gran Angular 64mp 3x Teleobjetivo 5000mah 67w Pantalla Curva 120hz Fhd+ Beige</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+10,777
+,
+17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1,949</t>
+          <t>7,985</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1433,20 +1444,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A05 64 GB verde claro 4 GB RAM</t>
+          <t>Xiaomi Redmi Note 10s Dual Sim 128 Gb Blanco Piedra 6 Gb Ram</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>$
-1,975
-,
-56</t>
+3,054
+,
+29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1,778</t>
+          <t>2,412</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1463,23 +1474,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Zte Smartphone Blade A54 128gb 4gb Ram Morado</t>
+          <t>Xiaomi Redmi 13C Dual SIM 256 GB glacier white 8 GB RAM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>$
-2,499</t>
+2,999</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1,699</t>
+          <t>2,499</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1491,7 +1502,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xiaomi Pocophone Poco M6 Pro Dual SIM 256 GB negro 8 GB RAM</t>
+          <t>Xiaomi Redmi 13C Dual SIM 128 GB navy blue 4 GB RAM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1501,12 +1512,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3,864</t>
+          <t>1,949</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1518,25 +1529,23 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Xiaomi POCO Poco X6 5G Dual SIM 256 GB blanco 8 GB RAM</t>
+          <t>Cubot Note 50 Dual Sim 256 Gb Global Azul 8 Gb Ram Android 13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>$
-5,796
-,
-03</t>
+2,932</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4,520</t>
+          <t>2,199</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1548,7 +1557,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Moto G23 Dual SIM 128 GB matte charcoal 8 GB RAM</t>
+          <t>Samsung Galaxy A15 5G 5G Dual SIM 128 GB azul oscuro 4 GB RAM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1559,12 +1568,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2,279</t>
+          <t>2,489</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1576,23 +1585,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi 13C Dual SIM 256 GB glacier white 8 GB RAM</t>
+          <t>Xiaomi Redmi Note 12s 4g 256gb 8gb Ram Dual Sim Color Azul</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>$
-2,999</t>
+3,488</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2,499</t>
+          <t>2,959</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1604,23 +1613,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cubot Note 50 Dual Sim 256 Gb Global Azul 8 Gb Ram Android 13</t>
+          <t>Samsung Galaxy S24 Ultra 5G Dual SIM 256 GB gris titanio 12 GB RAM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>$
-2,932</t>
+38,980</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2,199</t>
+          <t>19,490</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1632,23 +1641,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A15 5G 5G Dual SIM 128 GB azul oscuro 4 GB RAM</t>
+          <t>Realme C67 Dual SIM 256 GB negro 8 GB RAM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>$
-2,999</t>
+5,407
+,
+97</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2,489</t>
+          <t>3,785</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1660,25 +1671,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 10s Dual Sim 128 Gb Azul Océano 6 Gb Ram</t>
+          <t>Cubot King Kong Power Dual SIM 256 GB Negro 8 GB RAM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>$
-3,054
-,
-29</t>
+5,020
+,
+30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2,412</t>
+          <t>3,721</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1690,23 +1701,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A55 5g Dual Sim 128 Gb Negro 8 Gb Ram</t>
+          <t>Xiaomi POCO Poco X6 5G Dual SIM 512 GB azul 12 GB RAM</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>$
-7,999</t>
+6,978
+,
+02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5,999</t>
+          <t>5,721</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1718,18 +1731,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 12s 4g 256gb 8gb Ram Dual Sim Color Azul</t>
+          <t>Xiaomi Redmi Note 12s 4G Dual SIM 256 GB ice blue 8 GB RAM</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>$
-3,488</t>
+4,264
+,
+35</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2,959</t>
+          <t>3,004</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1746,20 +1761,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cubot King Kong Power Dual SIM 256 GB Negro 8 GB RAM</t>
+          <t>Samsung Galaxy A05 Dual SIM 64 GB plateado 4 GB RAM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>$
-5,003
-,
-91</t>
+1,975
+,
+56</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3,709</t>
+          <t>1,778</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1776,25 +1791,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cubot Note 40 Dual SIM 256 GB Negro 6 GB RAM</t>
+          <t>Samsung Galaxy A15 4G Dual SIM 128 GB verde claro 4 GB RAM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>$
-3,864
-,
-02</t>
+3,684</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1,970</t>
+          <t>2,320</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1806,18 +1819,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Moto G13 128 GB gris oxford 4 GB RAM</t>
+          <t>Xiaomi Redmi Note 13 Pro 4G Dual SIM 256 GB negro 8 GB RAM</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$
-2,105</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1,949</t>
+          <t>4,386</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1834,25 +1846,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cubot Note 40 Dual SIM 256 GB Lavanda 6 GB RAM</t>
+          <t>Honor 90 Lite 256 Gb 8gb Ram Sellados Color Azul</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$
-3,864
-,
-02</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1,970</t>
+          <t>3,239</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1864,22 +1873,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Celular Oppo A38 128 Gb / 4ram / 50mpx Negro</t>
+          <t>Celular Wiko T3 4gb-128gb Dorado</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$
+1,448</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2,395</t>
+          <t>1,375</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1891,25 +1901,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Xiaomi POCO Poco X6 5G Dual SIM 512 GB azul 12 GB RAM</t>
+          <t>Xiaomi Redmi Note 13 4G Dual SIM 128 GB negro 6 GB RAM</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$
-6,955
-,
-24</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5,702</t>
+          <t>2,859</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1921,7 +1928,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 13 Pro 4G Dual SIM 256 GB negro 8 GB RAM</t>
+          <t>Samsung Galaxy S23 Fe 256gb 8gb Ram Violeta</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1931,7 +1938,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,386</t>
+          <t>9,499</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1948,23 +1955,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ZTE Blade A31 Plus 32 GB deep gray 1 GB RAM</t>
+          <t>Cubot King Kong 8 Dual SIM 256 GB Negro 6 GB RAM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>$
-2,199</t>
+4,123
+,
+75</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>3,257</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1976,20 +1985,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 12s 4G Dual SIM 256 GB ice blue 8 GB RAM</t>
+          <t>Xiaomi Pocophone Poco M6 Pro Dual SIM 256 GB negro 8 GB RAM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$
-4,250
-,
-42</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2,994</t>
+          <t>3,876</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2006,18 +2012,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Motorola Edge Edge 40 Neo 5G 256 GB negro 12 GB RAM</t>
+          <t>Honor Honor X7a 128 GB plata titanio 6 GB RAM</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$
-6,099</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5,794</t>
+          <t>3,829</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2034,23 +2039,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Moto E13 Dual SIM 128 GB cosmic black 8 GB RAM</t>
+          <t>Honor X8b Dual SIM 512 GB Plateado 8 GB RAM</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>$
-2,398</t>
+7,499</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1,855</t>
+          <t>4,199</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
